--- a/data/trans_dic/P25A$rendimiento-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$rendimiento-Clase-trans_dic.xlsx
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02946859806013632</v>
+        <v>0.03146909212933694</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02921257256168651</v>
+        <v>0.04791989817846617</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01872208135059287</v>
+        <v>0.01936843493656825</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01705562101831918</v>
+        <v>0.01729440876117278</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01673414343003917</v>
+        <v>0.01451066547548549</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01731231912124</v>
+        <v>0.01235941201612346</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03654986865132312</v>
+        <v>0.03636932557972126</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06837020590139078</v>
+        <v>0.06817589794067057</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06192746815133778</v>
+        <v>0.05768593908592858</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1597785096239492</v>
+        <v>0.1587614531156143</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2497595920570656</v>
+        <v>0.261970543520568</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1794437235954119</v>
+        <v>0.1787189187162804</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.157845987363181</v>
+        <v>0.1572753238354619</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09131158308695363</v>
+        <v>0.0944759685021558</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07666792128242444</v>
+        <v>0.07789798105707975</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.130926933932503</v>
+        <v>0.1306361173745163</v>
       </c>
     </row>
     <row r="7">
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03194380060936226</v>
+        <v>0.03118366451653581</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0</v>
+        <v>0.01330126627769361</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -805,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02076178881138827</v>
+        <v>0.02056164891476471</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.007649110218979252</v>
+        <v>0.007568817895587711</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06184023146282587</v>
+        <v>0.06568905109995597</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1377302150707899</v>
+        <v>0.1400561045095973</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1033069767428934</v>
+        <v>0.1108984091508452</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1025911661627621</v>
+        <v>0.1027666762280285</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09065011318191195</v>
+        <v>0.08221638886292384</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07968798315903586</v>
+        <v>0.08159466938196047</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05336142276147143</v>
+        <v>0.04908573904677208</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09857369654077078</v>
+        <v>0.09583785959507038</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06896553794391555</v>
+        <v>0.07022733622470953</v>
       </c>
     </row>
     <row r="10">
@@ -893,27 +893,27 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0194631499162739</v>
+        <v>0.01955755642620449</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01805078081794358</v>
+        <v>0.01304672647894957</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0187008862635667</v>
+        <v>0.0188642584169805</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03627615356941555</v>
+        <v>0.03591917049099501</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.03151751933044306</v>
+        <v>0.0299482623005542</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01494856659245962</v>
+        <v>0.01533470855866281</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01622800101733764</v>
+        <v>0.01698711411881901</v>
       </c>
     </row>
     <row r="12">
@@ -924,27 +924,27 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1104635670429154</v>
+        <v>0.1059813878565988</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0884329788685991</v>
+        <v>0.0862782374151459</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.11055954703524</v>
+        <v>0.1183000791424824</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3095294776628228</v>
+        <v>0.3112817793567116</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.1208943781708155</v>
+        <v>0.1181026173031988</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07378826608961044</v>
+        <v>0.07606105514641551</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09556457656075439</v>
+        <v>0.1047037639609191</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01426966008898894</v>
+        <v>0.01604961129824705</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01603275988427173</v>
+        <v>0.01579959536336491</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02358573370848698</v>
+        <v>0.02392962582090495</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01464612200717746</v>
+        <v>0.01455091904704509</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.00870275267412445</v>
+        <v>0.008623372015231737</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02312797814512337</v>
+        <v>0.02182060434011494</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01955858822969511</v>
+        <v>0.01782853319301415</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01647188879083193</v>
+        <v>0.01775518679321457</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02847679981512417</v>
+        <v>0.02783619507874811</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05690651063834352</v>
+        <v>0.06078465474589342</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06061184511658694</v>
+        <v>0.05311592825567978</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08059796736937173</v>
+        <v>0.08197315197974986</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1389168611785487</v>
+        <v>0.1262600812748345</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0964582770117884</v>
+        <v>0.1003441795485096</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1254887244628955</v>
+        <v>0.1273745915660125</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05623151919780962</v>
+        <v>0.05678403481278301</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05331843217012062</v>
+        <v>0.05309386536582323</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07581884625121449</v>
+        <v>0.07956000921762482</v>
       </c>
     </row>
     <row r="16">
@@ -1106,26 +1106,26 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007859300433086717</v>
+        <v>0.008944831599072452</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01865189449355552</v>
+        <v>0.01689778461878175</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01328185897983727</v>
+        <v>0.01464267779496808</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01262089646177328</v>
+        <v>0.01481749099800163</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02578980321583122</v>
+        <v>0.02476600634555792</v>
       </c>
     </row>
     <row r="18">
@@ -1136,29 +1136,29 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0973980845590988</v>
+        <v>0.1051673711320045</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08522032317352173</v>
+        <v>0.09526895270115407</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.110746066102186</v>
+        <v>0.0984710648763175</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.1207585617953739</v>
+        <v>0.1196367529198419</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1386875506504903</v>
+        <v>0.1306928226533236</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06428884323977356</v>
+        <v>0.06449567317284091</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08051178969365534</v>
+        <v>0.07543408752916218</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09265367425346928</v>
+        <v>0.091751881696725</v>
       </c>
     </row>
     <row r="19">
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01696795751431614</v>
+        <v>0.01701190090501609</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1241,29 +1241,29 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7192703709363305</v>
+        <v>0.6916094949145362</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6629928105521338</v>
+        <v>0.645505018719181</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.1186343713832431</v>
+        <v>0.1191705070086601</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.08901026964738779</v>
+        <v>0.09088106953771256</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1991653669851838</v>
+        <v>0.1953995501574122</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1295829263909366</v>
+        <v>0.1430384177003134</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.102222477762777</v>
+        <v>0.09831847804496209</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1720596824859158</v>
+        <v>0.1664239351271396</v>
       </c>
     </row>
     <row r="22">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02062422664512385</v>
+        <v>0.02109638879749396</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02518956602588276</v>
+        <v>0.02566703018773649</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0338216377445566</v>
+        <v>0.03509895880268631</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02922181753072649</v>
+        <v>0.02872979878741044</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01658079489156524</v>
+        <v>0.01681568400965989</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02971511934527063</v>
+        <v>0.02723113210083992</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02731007526940608</v>
+        <v>0.0261902406622735</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02621001493139016</v>
+        <v>0.02676197214038627</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03686896705574332</v>
+        <v>0.03695714142563422</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04817824814552459</v>
+        <v>0.04892440891499211</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05324133762138177</v>
+        <v>0.05264629168448452</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06953077507145611</v>
+        <v>0.07294218304500849</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0834174359535607</v>
+        <v>0.08081627217934403</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05565513031530733</v>
+        <v>0.05853790485288976</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07712226669451901</v>
+        <v>0.0759037567799254</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05160985572259242</v>
+        <v>0.05070368404385044</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0472626914243832</v>
+        <v>0.04817295491248812</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06573527394613204</v>
+        <v>0.06604018040718482</v>
       </c>
     </row>
     <row r="25">
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2751</v>
+        <v>2938</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1112</v>
+        <v>1824</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>968</v>
+        <v>1001</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1047</v>
+        <v>1062</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2241</v>
+        <v>1944</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2835</v>
+        <v>2024</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5656</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="7">
@@ -1638,31 +1638,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6555</v>
+        <v>6537</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6940</v>
+        <v>6465</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14916</v>
+        <v>14821</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9508</v>
+        <v>9972</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9277</v>
+        <v>9239</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9691</v>
+        <v>9656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12231</v>
+        <v>12655</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12556</v>
+        <v>12757</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>20261</v>
+        <v>20216</v>
       </c>
     </row>
     <row r="8">
@@ -1750,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2872</v>
+        <v>2804</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0</v>
+        <v>969</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2989</v>
+        <v>2960</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1069</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="11">
@@ -1782,31 +1782,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4937</v>
+        <v>5244</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12385</v>
+        <v>12594</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7526</v>
+        <v>8080</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>4151</v>
+        <v>4158</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4900</v>
+        <v>4445</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>5334</v>
+        <v>5461</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6419</v>
+        <v>5905</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14193</v>
+        <v>13799</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>9640</v>
+        <v>9817</v>
       </c>
     </row>
     <row r="12">
@@ -1891,27 +1891,27 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2077</v>
+        <v>2087</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2924</v>
+        <v>2113</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1838</v>
+        <v>1854</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>4131</v>
+        <v>3926</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2947</v>
+        <v>3023</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1809</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="15">
@@ -1922,27 +1922,27 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11787</v>
+        <v>11309</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14325</v>
+        <v>13976</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10866</v>
+        <v>11627</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7545</v>
+        <v>7588</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>15847</v>
+        <v>15481</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14548</v>
+        <v>14996</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10653</v>
+        <v>11672</v>
       </c>
     </row>
     <row r="16">
@@ -2027,31 +2027,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3883</v>
+        <v>4367</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5113</v>
+        <v>5039</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5371</v>
+        <v>5450</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2005</v>
+        <v>1891</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6561</v>
+        <v>5981</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>7117</v>
+        <v>7672</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8954</v>
+        <v>8752</v>
       </c>
     </row>
     <row r="19">
@@ -2062,31 +2062,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15485</v>
+        <v>16541</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19331</v>
+        <v>16941</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18356</v>
+        <v>18669</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>8799</v>
+        <v>7998</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10914</v>
+        <v>11354</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>10877</v>
+        <v>11040</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>18864</v>
+        <v>19049</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>23038</v>
+        <v>22941</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>23839</v>
+        <v>25015</v>
       </c>
     </row>
     <row r="20">
@@ -2174,26 +2174,26 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>999</v>
+        <v>1137</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2009</v>
+        <v>1820</v>
       </c>
       <c r="F22" s="6" t="inlineStr"/>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>932</v>
+        <v>1028</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2481</v>
+        <v>2913</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4588</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="23">
@@ -2204,29 +2204,29 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6193</v>
+        <v>6687</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10835</v>
+        <v>12112</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11927</v>
+        <v>10605</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>8386</v>
+        <v>8309</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>9735</v>
+        <v>9174</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6370</v>
+        <v>6390</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>15827</v>
+        <v>14829</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>16482</v>
+        <v>16322</v>
       </c>
     </row>
     <row r="24">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>0</v>
@@ -2344,29 +2344,29 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3975</v>
+        <v>3823</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3989</v>
+        <v>3883</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>5812</v>
+        <v>5838</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5424</v>
+        <v>5538</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7197</v>
+        <v>7061</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>7064</v>
+        <v>7798</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6844</v>
+        <v>6583</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7176</v>
+        <v>6941</v>
       </c>
     </row>
     <row r="28">
@@ -2451,31 +2451,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>12862</v>
+        <v>13157</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>20557</v>
+        <v>20946</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>20479</v>
+        <v>21252</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>7327</v>
+        <v>7204</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>6375</v>
+        <v>6465</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>9940</v>
+        <v>9109</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>23880</v>
+        <v>22900</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>31466</v>
+        <v>32129</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>34658</v>
+        <v>34740</v>
       </c>
     </row>
     <row r="31">
@@ -2486,31 +2486,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>30047</v>
+        <v>30512</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>43449</v>
+        <v>42963</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>42101</v>
+        <v>44166</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>20916</v>
+        <v>20263</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>21397</v>
+        <v>22506</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>25799</v>
+        <v>25392</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>45127</v>
+        <v>44335</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>56740</v>
+        <v>57833</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>61792</v>
+        <v>62079</v>
       </c>
     </row>
     <row r="32">
